--- a/Code/Results/Cases/Case_0_138/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_138/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1050488126095104</v>
+        <v>0.266377860180107</v>
       </c>
       <c r="D2">
-        <v>0.0962150326592095</v>
+        <v>0.1022916732020462</v>
       </c>
       <c r="E2">
-        <v>0.01958742204335895</v>
+        <v>0.08516941909815312</v>
       </c>
       <c r="F2">
-        <v>3.801820847645359</v>
+        <v>2.436614961427182</v>
       </c>
       <c r="G2">
-        <v>4.365810070605647</v>
+        <v>2.533292934628946</v>
       </c>
       <c r="H2">
-        <v>2.183890731021847</v>
+        <v>1.863095474905975</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0670219527432323</v>
+        <v>0.07448513552507308</v>
       </c>
       <c r="M2">
-        <v>5.047025037042403</v>
+        <v>2.122762403723868</v>
       </c>
       <c r="N2">
-        <v>3.060414209606449</v>
+        <v>1.541936691234667</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1006717074837624</v>
+        <v>0.2689043029714995</v>
       </c>
       <c r="D3">
-        <v>0.08418190879236676</v>
+        <v>0.1014319877055812</v>
       </c>
       <c r="E3">
-        <v>0.02177605933121063</v>
+        <v>0.08653199089029151</v>
       </c>
       <c r="F3">
-        <v>3.280260452306436</v>
+        <v>2.347201262919498</v>
       </c>
       <c r="G3">
-        <v>3.752570712344578</v>
+        <v>2.425336855193791</v>
       </c>
       <c r="H3">
-        <v>1.905503112169953</v>
+        <v>1.822689697272722</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.06267325179868521</v>
+        <v>0.07322391023355124</v>
       </c>
       <c r="M3">
-        <v>4.363246681554216</v>
+        <v>1.940322024169575</v>
       </c>
       <c r="N3">
-        <v>2.749628127875923</v>
+        <v>1.44143269200066</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.09852685327799549</v>
+        <v>0.2706335220392333</v>
       </c>
       <c r="D4">
-        <v>0.07736157626427342</v>
+        <v>0.1010012580974688</v>
       </c>
       <c r="E4">
-        <v>0.02318689030306365</v>
+        <v>0.08741164768381937</v>
       </c>
       <c r="F4">
-        <v>2.974701586874488</v>
+        <v>2.294427139550351</v>
       </c>
       <c r="G4">
-        <v>3.393310432458151</v>
+        <v>2.361357575447983</v>
       </c>
       <c r="H4">
-        <v>1.743204635075244</v>
+        <v>1.799392259840204</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.06000455017869655</v>
+        <v>0.07245961574455606</v>
       </c>
       <c r="M4">
-        <v>3.950104636261685</v>
+        <v>1.828709854513932</v>
       </c>
       <c r="N4">
-        <v>2.560303080885689</v>
+        <v>1.380082847838764</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.09777407021314843</v>
+        <v>0.2713827151744539</v>
       </c>
       <c r="D5">
-        <v>0.07470400718958103</v>
+        <v>0.1008498367917383</v>
       </c>
       <c r="E5">
-        <v>0.0237780459528909</v>
+        <v>0.08778093051892899</v>
       </c>
       <c r="F5">
-        <v>2.853314078751737</v>
+        <v>2.273447776089057</v>
       </c>
       <c r="G5">
-        <v>3.250582371719105</v>
+        <v>2.335855500065634</v>
       </c>
       <c r="H5">
-        <v>1.678919466611831</v>
+        <v>1.790274081009727</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.05891764038854674</v>
+        <v>0.07215076241349649</v>
       </c>
       <c r="M5">
-        <v>3.783113677068769</v>
+        <v>1.783328225325292</v>
       </c>
       <c r="N5">
-        <v>2.483484952888091</v>
+        <v>1.355175481027828</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.09765598939709008</v>
+        <v>0.2715098005036793</v>
       </c>
       <c r="D6">
-        <v>0.07426951729691211</v>
+        <v>0.1008261400779276</v>
       </c>
       <c r="E6">
-        <v>0.02387717034967984</v>
+        <v>0.0878429027366896</v>
       </c>
       <c r="F6">
-        <v>2.833331907676779</v>
+        <v>2.269995733970177</v>
       </c>
       <c r="G6">
-        <v>3.227086560394042</v>
+        <v>2.331655039992313</v>
       </c>
       <c r="H6">
-        <v>1.668348417987204</v>
+        <v>1.788782577971176</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.05873720366124857</v>
+        <v>0.07209963659519403</v>
       </c>
       <c r="M6">
-        <v>3.75545917278896</v>
+        <v>1.775798725071979</v>
       </c>
       <c r="N6">
-        <v>2.470748321566248</v>
+        <v>1.351045339948399</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.09851622858882081</v>
+        <v>0.2706434459514213</v>
       </c>
       <c r="D7">
-        <v>0.07732526788404215</v>
+        <v>0.100999118793375</v>
       </c>
       <c r="E7">
-        <v>0.02319479788629319</v>
+        <v>0.08741658417601661</v>
       </c>
       <c r="F7">
-        <v>2.973052522838969</v>
+        <v>2.294142083305019</v>
       </c>
       <c r="G7">
-        <v>3.391371494312892</v>
+        <v>2.361011350595163</v>
       </c>
       <c r="H7">
-        <v>1.742330548451349</v>
+        <v>1.79926777345301</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.05998988894961599</v>
+        <v>0.07245543981914793</v>
       </c>
       <c r="M7">
-        <v>3.947847384918518</v>
+        <v>1.828097413460313</v>
       </c>
       <c r="N7">
-        <v>2.559265788726947</v>
+        <v>1.379746557464188</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1034171006399021</v>
+        <v>0.2672118994173687</v>
       </c>
       <c r="D8">
-        <v>0.09193437155670381</v>
+        <v>0.1019749030892427</v>
       </c>
       <c r="E8">
-        <v>0.02032776657556523</v>
+        <v>0.08563029946008172</v>
       </c>
       <c r="F8">
-        <v>3.618574879783012</v>
+        <v>2.40533884068526</v>
       </c>
       <c r="G8">
-        <v>4.150345395553614</v>
+        <v>2.495584977955531</v>
       </c>
       <c r="H8">
-        <v>2.085904335618437</v>
+        <v>1.848847049858676</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.06552238019098411</v>
+        <v>0.07404820515161248</v>
       </c>
       <c r="M8">
-        <v>4.809660736261065</v>
+        <v>2.059771745073959</v>
       </c>
       <c r="N8">
-        <v>2.952916091080311</v>
+        <v>1.507209734598149</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1181566301223711</v>
+        <v>0.2619053908150732</v>
       </c>
       <c r="D9">
-        <v>0.1262515668254025</v>
+        <v>0.1046737890596035</v>
       </c>
       <c r="E9">
-        <v>0.01526881591520945</v>
+        <v>0.08246902750140439</v>
       </c>
       <c r="F9">
-        <v>5.031590321514784</v>
+        <v>2.64065259201567</v>
       </c>
       <c r="G9">
-        <v>5.812306782815199</v>
+        <v>2.778251224005544</v>
       </c>
       <c r="H9">
-        <v>2.845518455090087</v>
+        <v>1.958279468790806</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.07637138728171067</v>
+        <v>0.07724919980169886</v>
       </c>
       <c r="M9">
-        <v>6.570331850587024</v>
+        <v>2.517392233225877</v>
       </c>
       <c r="N9">
-        <v>3.739069936593751</v>
+        <v>1.75992046572614</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1335491752014235</v>
+        <v>0.258889057753521</v>
       </c>
       <c r="D10">
-        <v>0.1569954449511926</v>
+        <v>0.1071565716895293</v>
       </c>
       <c r="E10">
-        <v>0.01194745707277445</v>
+        <v>0.08035489119832295</v>
       </c>
       <c r="F10">
-        <v>6.213520045225749</v>
+        <v>2.8246213403539</v>
       </c>
       <c r="G10">
-        <v>7.203762347706856</v>
+        <v>2.998049845067328</v>
       </c>
       <c r="H10">
-        <v>3.486620257519348</v>
+        <v>2.046430059291481</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.08432579577674915</v>
+        <v>0.07964505071615946</v>
       </c>
       <c r="M10">
-        <v>7.938103383862483</v>
+        <v>2.855774278434097</v>
       </c>
       <c r="N10">
-        <v>4.32917950143289</v>
+        <v>1.947155578148198</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1419821880249401</v>
+        <v>0.2577117996959402</v>
       </c>
       <c r="D11">
-        <v>0.172836898459849</v>
+        <v>0.1083993215766696</v>
       </c>
       <c r="E11">
-        <v>0.0105371488527406</v>
+        <v>0.079438422332613</v>
       </c>
       <c r="F11">
-        <v>6.79918400484604</v>
+        <v>2.910846403123486</v>
       </c>
       <c r="G11">
-        <v>7.893797376003022</v>
+        <v>3.100827179895248</v>
       </c>
       <c r="H11">
-        <v>3.805809022397568</v>
+        <v>2.088284246704404</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.08793702537619907</v>
+        <v>0.08074388846999625</v>
       </c>
       <c r="M11">
-        <v>8.586161331158451</v>
+        <v>3.010221289522207</v>
       </c>
       <c r="N11">
-        <v>4.601431933018262</v>
+        <v>2.032653215215078</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1454315194984304</v>
+        <v>0.2572943117838946</v>
       </c>
       <c r="D12">
-        <v>0.1791791325635899</v>
+        <v>0.1088866046441268</v>
       </c>
       <c r="E12">
-        <v>0.01001916192543195</v>
+        <v>0.07909789518356991</v>
       </c>
       <c r="F12">
-        <v>7.029793166634079</v>
+        <v>2.943872559896988</v>
       </c>
       <c r="G12">
-        <v>8.165610863233894</v>
+        <v>3.140159796490479</v>
       </c>
       <c r="H12">
-        <v>3.931736411693578</v>
+        <v>2.104391178681965</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.08930309148014715</v>
+        <v>0.08116121611568161</v>
       </c>
       <c r="M12">
-        <v>8.836404184183976</v>
+        <v>3.068782935573637</v>
       </c>
       <c r="N12">
-        <v>4.705185580683747</v>
+        <v>2.065073364915975</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1446762995985154</v>
+        <v>0.2573829613079681</v>
       </c>
       <c r="D13">
-        <v>0.1777964575019126</v>
+        <v>0.1087809114022917</v>
       </c>
       <c r="E13">
-        <v>0.01012997551216133</v>
+        <v>0.07917094365062116</v>
       </c>
       <c r="F13">
-        <v>6.979697406903284</v>
+        <v>2.936742966974833</v>
       </c>
       <c r="G13">
-        <v>8.10655891049521</v>
+        <v>3.131670249888714</v>
       </c>
       <c r="H13">
-        <v>3.90436961414548</v>
+        <v>2.100910715241923</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.08900895443419898</v>
+        <v>0.08107128385472606</v>
       </c>
       <c r="M13">
-        <v>8.782273119670066</v>
+        <v>3.056167230445595</v>
       </c>
       <c r="N13">
-        <v>4.682809125602432</v>
+        <v>2.058089184882135</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1422604964408976</v>
+        <v>0.2576768835718042</v>
       </c>
       <c r="D14">
-        <v>0.1733512686247565</v>
+        <v>0.1084390741009287</v>
       </c>
       <c r="E14">
-        <v>0.01049420123958456</v>
+        <v>0.07941027622959496</v>
       </c>
       <c r="F14">
-        <v>6.817966201000729</v>
+        <v>2.913555920372772</v>
       </c>
       <c r="G14">
-        <v>7.915933186347559</v>
+        <v>3.104054750238333</v>
       </c>
       <c r="H14">
-        <v>3.816060294554461</v>
+        <v>2.089604178220327</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.08804944331411946</v>
+        <v>0.08077819815972731</v>
       </c>
       <c r="M14">
-        <v>8.606644347897827</v>
+        <v>3.015037659005969</v>
       </c>
       <c r="N14">
-        <v>4.609953915962308</v>
+        <v>2.035319571454863</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1408158184599841</v>
+        <v>0.2578606155031622</v>
       </c>
       <c r="D15">
-        <v>0.1706758723854733</v>
+        <v>0.108231872797063</v>
       </c>
       <c r="E15">
-        <v>0.01071944622645482</v>
+        <v>0.07955772373949177</v>
       </c>
       <c r="F15">
-        <v>6.720118473081783</v>
+        <v>2.899402263737926</v>
       </c>
       <c r="G15">
-        <v>7.800618929811606</v>
+        <v>3.087193611173802</v>
       </c>
       <c r="H15">
-        <v>3.762665162974656</v>
+        <v>2.082712316208926</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.08746151748212583</v>
+        <v>0.08059883185010364</v>
       </c>
       <c r="M15">
-        <v>8.499735751506705</v>
+        <v>2.989854551702678</v>
       </c>
       <c r="N15">
-        <v>4.565417289567392</v>
+        <v>2.02137819058089</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1330308204110224</v>
+        <v>0.2589699405614141</v>
       </c>
       <c r="D16">
-        <v>0.1560035323893914</v>
+        <v>0.1070776680771246</v>
       </c>
       <c r="E16">
-        <v>0.01204177692301656</v>
+        <v>0.0804156963233007</v>
       </c>
       <c r="F16">
-        <v>6.176363583850872</v>
+        <v>2.819038209281985</v>
       </c>
       <c r="G16">
-        <v>7.159997094709809</v>
+        <v>2.991390253606255</v>
       </c>
       <c r="H16">
-        <v>3.466401341101573</v>
+        <v>2.043730546610561</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.08408961475110743</v>
+        <v>0.07957341361718306</v>
       </c>
       <c r="M16">
-        <v>7.896359753913316</v>
+        <v>2.84569132402541</v>
       </c>
       <c r="N16">
-        <v>4.311472687837266</v>
+        <v>1.941574403025243</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1286529109245578</v>
+        <v>0.2597005946676632</v>
       </c>
       <c r="D17">
-        <v>0.1475253666141896</v>
+        <v>0.1063988960452775</v>
       </c>
       <c r="E17">
-        <v>0.01287977853686462</v>
+        <v>0.0809536352155602</v>
       </c>
       <c r="F17">
-        <v>5.856285149728507</v>
+        <v>2.770394097286754</v>
       </c>
       <c r="G17">
-        <v>6.783049561483438</v>
+        <v>2.93334091623052</v>
       </c>
       <c r="H17">
-        <v>3.29239287199988</v>
+        <v>2.02026956656249</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.08201893229568924</v>
+        <v>0.0789465990071605</v>
       </c>
       <c r="M17">
-        <v>7.533527203359398</v>
+        <v>2.757385080424513</v>
       </c>
       <c r="N17">
-        <v>4.156732738406959</v>
+        <v>1.892698432424453</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1262658448241609</v>
+        <v>0.2601391735297085</v>
       </c>
       <c r="D18">
-        <v>0.1428179422125027</v>
+        <v>0.1060191268947079</v>
       </c>
       <c r="E18">
-        <v>0.01337112950163943</v>
+        <v>0.08126730306006635</v>
       </c>
       <c r="F18">
-        <v>5.67655981020738</v>
+        <v>2.742653461000884</v>
       </c>
       <c r="G18">
-        <v>6.571439009092785</v>
+        <v>2.900214337336593</v>
       </c>
       <c r="H18">
-        <v>3.19481976431058</v>
+        <v>2.006940197127221</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.08082727038929249</v>
+        <v>0.07858691846512755</v>
       </c>
       <c r="M18">
-        <v>7.327185865683447</v>
+        <v>2.706642051392919</v>
       </c>
       <c r="N18">
-        <v>4.068081174857554</v>
+        <v>1.864616853602627</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1254788158273783</v>
+        <v>0.260290807581697</v>
       </c>
       <c r="D19">
-        <v>0.1412511449469775</v>
+        <v>0.1058923598644839</v>
       </c>
       <c r="E19">
-        <v>0.01353905606978456</v>
+        <v>0.08137423686552392</v>
       </c>
       <c r="F19">
-        <v>5.616409371894804</v>
+        <v>2.733301568982029</v>
       </c>
       <c r="G19">
-        <v>6.500624583350486</v>
+        <v>2.889042864562782</v>
       </c>
       <c r="H19">
-        <v>3.162186223477249</v>
+        <v>2.002455237054903</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.08042369216149581</v>
+        <v>0.07846528423174703</v>
       </c>
       <c r="M19">
-        <v>7.257696951718344</v>
+        <v>2.689469591405526</v>
       </c>
       <c r="N19">
-        <v>4.038122530009019</v>
+        <v>1.855114242984854</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1291050709437656</v>
+        <v>0.2596209165493377</v>
       </c>
       <c r="D20">
-        <v>0.1484099107373424</v>
+        <v>0.1064700482595242</v>
       </c>
       <c r="E20">
-        <v>0.01278959321637263</v>
+        <v>0.08089592976896487</v>
       </c>
       <c r="F20">
-        <v>5.889893017989692</v>
+        <v>2.775547625994989</v>
       </c>
       <c r="G20">
-        <v>6.822623530664146</v>
+        <v>2.939493180039051</v>
       </c>
       <c r="H20">
-        <v>3.310649462197262</v>
+        <v>2.022749936412822</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.08223943102232312</v>
+        <v>0.07901323734508026</v>
       </c>
       <c r="M20">
-        <v>7.571901026127478</v>
+        <v>2.766780410329915</v>
       </c>
       <c r="N20">
-        <v>4.173168042873527</v>
+        <v>1.897898215375875</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1429626559921502</v>
+        <v>0.2575897806953265</v>
       </c>
       <c r="D21">
-        <v>0.1746468750729377</v>
+        <v>0.1085390241764941</v>
       </c>
       <c r="E21">
-        <v>0.01038676863251098</v>
+        <v>0.07933980141602248</v>
       </c>
       <c r="F21">
-        <v>6.865212572439674</v>
+        <v>2.920356272162849</v>
       </c>
       <c r="G21">
-        <v>7.971617336747158</v>
+        <v>3.112154785070857</v>
       </c>
       <c r="H21">
-        <v>3.84185119823951</v>
+        <v>2.092918145443775</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.08833131685874918</v>
+        <v>0.08086425190214896</v>
       </c>
       <c r="M21">
-        <v>8.658088821736953</v>
+        <v>3.027116335612163</v>
       </c>
       <c r="N21">
-        <v>4.631334417935307</v>
+        <v>2.042006382610339</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1535465376693708</v>
+        <v>0.2564274921204657</v>
       </c>
       <c r="D22">
-        <v>0.1938515302076667</v>
+        <v>0.1099886328152309</v>
       </c>
       <c r="E22">
-        <v>0.008911075272317159</v>
+        <v>0.07836078892418463</v>
       </c>
       <c r="F22">
-        <v>7.555490391031952</v>
+        <v>3.01718525756101</v>
       </c>
       <c r="G22">
-        <v>8.785473297718681</v>
+        <v>3.22741254109053</v>
       </c>
       <c r="H22">
-        <v>4.219284565141663</v>
+        <v>2.140281582570822</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.09230421013189982</v>
+        <v>0.08208108705827044</v>
       </c>
       <c r="M22">
-        <v>9.396974387853788</v>
+        <v>3.197704354941635</v>
       </c>
       <c r="N22">
-        <v>4.934674993203828</v>
+        <v>2.136445066950387</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.14773717226646</v>
+        <v>0.2570326162253593</v>
       </c>
       <c r="D23">
-        <v>0.1833811012560744</v>
+        <v>0.1092059062675474</v>
       </c>
       <c r="E23">
-        <v>0.009689380993968211</v>
+        <v>0.07887982488053424</v>
       </c>
       <c r="F23">
-        <v>7.181434466126206</v>
+        <v>2.965302283074237</v>
       </c>
       <c r="G23">
-        <v>8.344380868164933</v>
+        <v>3.16567247508118</v>
       </c>
       <c r="H23">
-        <v>4.014614028417157</v>
+        <v>2.114863336579447</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.09018470901642672</v>
+        <v>0.08143101221343585</v>
       </c>
       <c r="M23">
-        <v>8.999494609029881</v>
+        <v>3.106617104178724</v>
       </c>
       <c r="N23">
-        <v>4.772376483157302</v>
+        <v>2.086018764779794</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1289002485116129</v>
+        <v>0.259656881374994</v>
       </c>
       <c r="D24">
-        <v>0.1480094942589432</v>
+        <v>0.1064378477739183</v>
       </c>
       <c r="E24">
-        <v>0.01283033629862285</v>
+        <v>0.08092200469848798</v>
       </c>
       <c r="F24">
-        <v>5.874685669125228</v>
+        <v>2.773217013987107</v>
       </c>
       <c r="G24">
-        <v>6.804716412771484</v>
+        <v>2.93671097387022</v>
       </c>
       <c r="H24">
-        <v>3.302388052479387</v>
+        <v>2.021628067420522</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.08213974725380524</v>
+        <v>0.07898310801856923</v>
       </c>
       <c r="M24">
-        <v>7.554545273637729</v>
+        <v>2.762532702677674</v>
       </c>
       <c r="N24">
-        <v>4.165736682576295</v>
+        <v>1.895547337661725</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1134904197491124</v>
+        <v>0.2631870981078492</v>
       </c>
       <c r="D25">
-        <v>0.1161760040353101</v>
+        <v>0.1038574353849953</v>
       </c>
       <c r="E25">
-        <v>0.01657224929079781</v>
+        <v>0.08328764407238998</v>
       </c>
       <c r="F25">
-        <v>4.62872168106307</v>
+        <v>2.575089023843844</v>
       </c>
       <c r="G25">
-        <v>5.338318640437478</v>
+        <v>2.699703667517099</v>
       </c>
       <c r="H25">
-        <v>2.628077110112088</v>
+        <v>1.927336742911564</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.07343806089251359</v>
+        <v>0.076375272817927</v>
       </c>
       <c r="M25">
-        <v>6.083672055880356</v>
+        <v>2.393224463199772</v>
       </c>
       <c r="N25">
-        <v>3.52451193362549</v>
+        <v>1.691272285562036</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_138/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_138/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.266377860180107</v>
+        <v>0.1050488126095743</v>
       </c>
       <c r="D2">
-        <v>0.1022916732020462</v>
+        <v>0.09621503265935161</v>
       </c>
       <c r="E2">
-        <v>0.08516941909815312</v>
+        <v>0.01958742204336028</v>
       </c>
       <c r="F2">
-        <v>2.436614961427182</v>
+        <v>3.801820847645303</v>
       </c>
       <c r="G2">
-        <v>2.533292934628946</v>
+        <v>4.365810070605647</v>
       </c>
       <c r="H2">
-        <v>1.863095474905975</v>
+        <v>2.183890731021904</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.07448513552507308</v>
+        <v>0.06702195274331757</v>
       </c>
       <c r="M2">
-        <v>2.122762403723868</v>
+        <v>5.047025037042374</v>
       </c>
       <c r="N2">
-        <v>1.541936691234667</v>
+        <v>3.060414209606449</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2689043029714995</v>
+        <v>0.1006717074837553</v>
       </c>
       <c r="D3">
-        <v>0.1014319877055812</v>
+        <v>0.08418190879213938</v>
       </c>
       <c r="E3">
-        <v>0.08653199089029151</v>
+        <v>0.02177605933124438</v>
       </c>
       <c r="F3">
-        <v>2.347201262919498</v>
+        <v>3.280260452306436</v>
       </c>
       <c r="G3">
-        <v>2.425336855193791</v>
+        <v>3.752570712344522</v>
       </c>
       <c r="H3">
-        <v>1.822689697272722</v>
+        <v>1.905503112169839</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.07322391023355124</v>
+        <v>0.06267325179867811</v>
       </c>
       <c r="M3">
-        <v>1.940322024169575</v>
+        <v>4.363246681554244</v>
       </c>
       <c r="N3">
-        <v>1.44143269200066</v>
+        <v>2.749628127876036</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2706335220392333</v>
+        <v>0.09852685327771127</v>
       </c>
       <c r="D4">
-        <v>0.1010012580974688</v>
+        <v>0.07736157626438001</v>
       </c>
       <c r="E4">
-        <v>0.08741164768381937</v>
+        <v>0.02318689030305832</v>
       </c>
       <c r="F4">
-        <v>2.294427139550351</v>
+        <v>2.974701586874545</v>
       </c>
       <c r="G4">
-        <v>2.361357575447983</v>
+        <v>3.393310432458179</v>
       </c>
       <c r="H4">
-        <v>1.799392259840204</v>
+        <v>1.743204635075216</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.07245961574455606</v>
+        <v>0.06000455017866457</v>
       </c>
       <c r="M4">
-        <v>1.828709854513932</v>
+        <v>3.950104636261685</v>
       </c>
       <c r="N4">
-        <v>1.380082847838764</v>
+        <v>2.56030308088566</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2713827151744539</v>
+        <v>0.09777407021364581</v>
       </c>
       <c r="D5">
-        <v>0.1008498367917383</v>
+        <v>0.07470400718968051</v>
       </c>
       <c r="E5">
-        <v>0.08778093051892899</v>
+        <v>0.02377804595294863</v>
       </c>
       <c r="F5">
-        <v>2.273447776089057</v>
+        <v>2.853314078751737</v>
       </c>
       <c r="G5">
-        <v>2.335855500065634</v>
+        <v>3.25058237171902</v>
       </c>
       <c r="H5">
-        <v>1.790274081009727</v>
+        <v>1.678919466611831</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.07215076241349649</v>
+        <v>0.05891764038864977</v>
       </c>
       <c r="M5">
-        <v>1.783328225325292</v>
+        <v>3.783113677068769</v>
       </c>
       <c r="N5">
-        <v>1.355175481027828</v>
+        <v>2.483484952888205</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2715098005036793</v>
+        <v>0.09765598939663533</v>
       </c>
       <c r="D6">
-        <v>0.1008261400779276</v>
+        <v>0.07426951729701869</v>
       </c>
       <c r="E6">
-        <v>0.0878429027366896</v>
+        <v>0.02387717034964965</v>
       </c>
       <c r="F6">
-        <v>2.269995733970177</v>
+        <v>2.833331907676751</v>
       </c>
       <c r="G6">
-        <v>2.331655039992313</v>
+        <v>3.227086560394099</v>
       </c>
       <c r="H6">
-        <v>1.788782577971176</v>
+        <v>1.668348417987204</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.07209963659519403</v>
+        <v>0.05873720366132318</v>
       </c>
       <c r="M6">
-        <v>1.775798725071979</v>
+        <v>3.755459172788974</v>
       </c>
       <c r="N6">
-        <v>1.351045339948399</v>
+        <v>2.470748321566248</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2706434459514213</v>
+        <v>0.09851622858858633</v>
       </c>
       <c r="D7">
-        <v>0.100999118793375</v>
+        <v>0.07732526788427663</v>
       </c>
       <c r="E7">
-        <v>0.08741658417601661</v>
+        <v>0.02319479788635936</v>
       </c>
       <c r="F7">
-        <v>2.294142083305019</v>
+        <v>2.973052522838941</v>
       </c>
       <c r="G7">
-        <v>2.361011350595163</v>
+        <v>3.391371494312978</v>
       </c>
       <c r="H7">
-        <v>1.79926777345301</v>
+        <v>1.742330548451463</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.07245543981914793</v>
+        <v>0.05998988894967994</v>
       </c>
       <c r="M7">
-        <v>1.828097413460313</v>
+        <v>3.947847384918532</v>
       </c>
       <c r="N7">
-        <v>1.379746557464188</v>
+        <v>2.559265788726918</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2672118994173687</v>
+        <v>0.1034171006396249</v>
       </c>
       <c r="D8">
-        <v>0.1019749030892427</v>
+        <v>0.09193437155634854</v>
       </c>
       <c r="E8">
-        <v>0.08563029946008172</v>
+        <v>0.02032776657557012</v>
       </c>
       <c r="F8">
-        <v>2.40533884068526</v>
+        <v>3.618574879783012</v>
       </c>
       <c r="G8">
-        <v>2.495584977955531</v>
+        <v>4.1503453955537</v>
       </c>
       <c r="H8">
-        <v>1.848847049858676</v>
+        <v>2.085904335618324</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.07404820515161248</v>
+        <v>0.06552238019105161</v>
       </c>
       <c r="M8">
-        <v>2.059771745073959</v>
+        <v>4.809660736261065</v>
       </c>
       <c r="N8">
-        <v>1.507209734598149</v>
+        <v>2.952916091080453</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2619053908150732</v>
+        <v>0.1181566301223853</v>
       </c>
       <c r="D9">
-        <v>0.1046737890596035</v>
+        <v>0.126251566825573</v>
       </c>
       <c r="E9">
-        <v>0.08246902750140439</v>
+        <v>0.01526881591522233</v>
       </c>
       <c r="F9">
-        <v>2.64065259201567</v>
+        <v>5.031590321514784</v>
       </c>
       <c r="G9">
-        <v>2.778251224005544</v>
+        <v>5.812306782815085</v>
       </c>
       <c r="H9">
-        <v>1.958279468790806</v>
+        <v>2.84551845509003</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.07724919980169886</v>
+        <v>0.07637138728177462</v>
       </c>
       <c r="M9">
-        <v>2.517392233225877</v>
+        <v>6.570331850586996</v>
       </c>
       <c r="N9">
-        <v>1.75992046572614</v>
+        <v>3.739069936593637</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.258889057753521</v>
+        <v>0.1335491752010682</v>
       </c>
       <c r="D10">
-        <v>0.1071565716895293</v>
+        <v>0.1569954449511783</v>
       </c>
       <c r="E10">
-        <v>0.08035489119832295</v>
+        <v>0.01194745707276867</v>
       </c>
       <c r="F10">
-        <v>2.8246213403539</v>
+        <v>6.213520045225806</v>
       </c>
       <c r="G10">
-        <v>2.998049845067328</v>
+        <v>7.2037623477068</v>
       </c>
       <c r="H10">
-        <v>2.046430059291481</v>
+        <v>3.486620257519348</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.07964505071615946</v>
+        <v>0.08432579577672783</v>
       </c>
       <c r="M10">
-        <v>2.855774278434097</v>
+        <v>7.93810338386254</v>
       </c>
       <c r="N10">
-        <v>1.947155578148198</v>
+        <v>4.32917950143289</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2577117996959402</v>
+        <v>0.1419821880243717</v>
       </c>
       <c r="D11">
-        <v>0.1083993215766696</v>
+        <v>0.172836898459849</v>
       </c>
       <c r="E11">
-        <v>0.079438422332613</v>
+        <v>0.01053714885271262</v>
       </c>
       <c r="F11">
-        <v>2.910846403123486</v>
+        <v>6.79918400484604</v>
       </c>
       <c r="G11">
-        <v>3.100827179895248</v>
+        <v>7.893797376002965</v>
       </c>
       <c r="H11">
-        <v>2.088284246704404</v>
+        <v>3.805809022397568</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.08074388846999625</v>
+        <v>0.0879370253763625</v>
       </c>
       <c r="M11">
-        <v>3.010221289522207</v>
+        <v>8.586161331158451</v>
       </c>
       <c r="N11">
-        <v>2.032653215215078</v>
+        <v>4.601431933018148</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2572943117838946</v>
+        <v>0.1454315194984446</v>
       </c>
       <c r="D12">
-        <v>0.1088866046441268</v>
+        <v>0.1791791325636041</v>
       </c>
       <c r="E12">
-        <v>0.07909789518356991</v>
+        <v>0.01001916192543062</v>
       </c>
       <c r="F12">
-        <v>2.943872559896988</v>
+        <v>7.029793166634107</v>
       </c>
       <c r="G12">
-        <v>3.140159796490479</v>
+        <v>8.16561086323378</v>
       </c>
       <c r="H12">
-        <v>2.104391178681965</v>
+        <v>3.931736411693578</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.08116121611568161</v>
+        <v>0.0893030914799553</v>
       </c>
       <c r="M12">
-        <v>3.068782935573637</v>
+        <v>8.836404184184005</v>
       </c>
       <c r="N12">
-        <v>2.065073364915975</v>
+        <v>4.705185580683747</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2573829613079681</v>
+        <v>0.1446762995987143</v>
       </c>
       <c r="D13">
-        <v>0.1087809114022917</v>
+        <v>0.1777964575022537</v>
       </c>
       <c r="E13">
-        <v>0.07917094365062116</v>
+        <v>0.01012997551217376</v>
       </c>
       <c r="F13">
-        <v>2.936742966974833</v>
+        <v>6.979697406903369</v>
       </c>
       <c r="G13">
-        <v>3.131670249888714</v>
+        <v>8.106558910495153</v>
       </c>
       <c r="H13">
-        <v>2.100910715241923</v>
+        <v>3.904369614145594</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.08107128385472606</v>
+        <v>0.08900895443414214</v>
       </c>
       <c r="M13">
-        <v>3.056167230445595</v>
+        <v>8.782273119670123</v>
       </c>
       <c r="N13">
-        <v>2.058089184882135</v>
+        <v>4.682809125602432</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2576768835718042</v>
+        <v>0.1422604964410965</v>
       </c>
       <c r="D14">
-        <v>0.1084390741009287</v>
+        <v>0.1733512686247707</v>
       </c>
       <c r="E14">
-        <v>0.07941027622959496</v>
+        <v>0.01049420123956502</v>
       </c>
       <c r="F14">
-        <v>2.913555920372772</v>
+        <v>6.817966201000729</v>
       </c>
       <c r="G14">
-        <v>3.104054750238333</v>
+        <v>7.915933186347445</v>
       </c>
       <c r="H14">
-        <v>2.089604178220327</v>
+        <v>3.816060294554404</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.08077819815972731</v>
+        <v>0.08804944331416209</v>
       </c>
       <c r="M14">
-        <v>3.015037659005969</v>
+        <v>8.606644347897856</v>
       </c>
       <c r="N14">
-        <v>2.035319571454863</v>
+        <v>4.609953915962308</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2578606155031622</v>
+        <v>0.1408158184599699</v>
       </c>
       <c r="D15">
-        <v>0.108231872797063</v>
+        <v>0.1706758723856723</v>
       </c>
       <c r="E15">
-        <v>0.07955772373949177</v>
+        <v>0.01071944622645038</v>
       </c>
       <c r="F15">
-        <v>2.899402263737926</v>
+        <v>6.720118473081811</v>
       </c>
       <c r="G15">
-        <v>3.087193611173802</v>
+        <v>7.800618929811662</v>
       </c>
       <c r="H15">
-        <v>2.082712316208926</v>
+        <v>3.762665162974656</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.08059883185010364</v>
+        <v>0.08746151748211162</v>
       </c>
       <c r="M15">
-        <v>2.989854551702678</v>
+        <v>8.499735751506677</v>
       </c>
       <c r="N15">
-        <v>2.02137819058089</v>
+        <v>4.565417289567392</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2589699405614141</v>
+        <v>0.1330308204108093</v>
       </c>
       <c r="D16">
-        <v>0.1070776680771246</v>
+        <v>0.1560035323895903</v>
       </c>
       <c r="E16">
-        <v>0.0804156963233007</v>
+        <v>0.01204177692301567</v>
       </c>
       <c r="F16">
-        <v>2.819038209281985</v>
+        <v>6.176363583850843</v>
       </c>
       <c r="G16">
-        <v>2.991390253606255</v>
+        <v>7.159997094709979</v>
       </c>
       <c r="H16">
-        <v>2.043730546610561</v>
+        <v>3.46640134110163</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.07957341361718306</v>
+        <v>0.08408961475120691</v>
       </c>
       <c r="M16">
-        <v>2.84569132402541</v>
+        <v>7.896359753913316</v>
       </c>
       <c r="N16">
-        <v>1.941574403025243</v>
+        <v>4.311472687837266</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2597005946676632</v>
+        <v>0.1286529109246004</v>
       </c>
       <c r="D17">
-        <v>0.1063988960452775</v>
+        <v>0.1475253666143601</v>
       </c>
       <c r="E17">
-        <v>0.0809536352155602</v>
+        <v>0.01287977853689171</v>
       </c>
       <c r="F17">
-        <v>2.770394097286754</v>
+        <v>5.85628514972845</v>
       </c>
       <c r="G17">
-        <v>2.93334091623052</v>
+        <v>6.783049561483324</v>
       </c>
       <c r="H17">
-        <v>2.02026956656249</v>
+        <v>3.292392871999823</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.0789465990071605</v>
+        <v>0.08201893229580293</v>
       </c>
       <c r="M17">
-        <v>2.757385080424513</v>
+        <v>7.533527203359398</v>
       </c>
       <c r="N17">
-        <v>1.892698432424453</v>
+        <v>4.156732738406845</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2601391735297085</v>
+        <v>0.1262658448235925</v>
       </c>
       <c r="D18">
-        <v>0.1060191268947079</v>
+        <v>0.1428179422124884</v>
       </c>
       <c r="E18">
-        <v>0.08126730306006635</v>
+        <v>0.01337112950161323</v>
       </c>
       <c r="F18">
-        <v>2.742653461000884</v>
+        <v>5.67655981020738</v>
       </c>
       <c r="G18">
-        <v>2.900214337336593</v>
+        <v>6.571439009092842</v>
       </c>
       <c r="H18">
-        <v>2.006940197127221</v>
+        <v>3.19481976431058</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.07858691846512755</v>
+        <v>0.08082727038924986</v>
       </c>
       <c r="M18">
-        <v>2.706642051392919</v>
+        <v>7.327185865683418</v>
       </c>
       <c r="N18">
-        <v>1.864616853602627</v>
+        <v>4.06808117485744</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.260290807581697</v>
+        <v>0.1254788158275915</v>
       </c>
       <c r="D19">
-        <v>0.1058923598644839</v>
+        <v>0.1412511449471623</v>
       </c>
       <c r="E19">
-        <v>0.08137423686552392</v>
+        <v>0.01353905606978545</v>
       </c>
       <c r="F19">
-        <v>2.733301568982029</v>
+        <v>5.616409371894804</v>
       </c>
       <c r="G19">
-        <v>2.889042864562782</v>
+        <v>6.500624583350486</v>
       </c>
       <c r="H19">
-        <v>2.002455237054903</v>
+        <v>3.162186223477249</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.07846528423174703</v>
+        <v>0.08042369216160239</v>
       </c>
       <c r="M19">
-        <v>2.689469591405526</v>
+        <v>7.257696951718316</v>
       </c>
       <c r="N19">
-        <v>1.855114242984854</v>
+        <v>4.038122530009019</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2596209165493377</v>
+        <v>0.1291050709437656</v>
       </c>
       <c r="D20">
-        <v>0.1064700482595242</v>
+        <v>0.1484099107373424</v>
       </c>
       <c r="E20">
-        <v>0.08089592976896487</v>
+        <v>0.01278959321637441</v>
       </c>
       <c r="F20">
-        <v>2.775547625994989</v>
+        <v>5.889893017989664</v>
       </c>
       <c r="G20">
-        <v>2.939493180039051</v>
+        <v>6.822623530664202</v>
       </c>
       <c r="H20">
-        <v>2.022749936412822</v>
+        <v>3.310649462197205</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.07901323734508026</v>
+        <v>0.08223943102242259</v>
       </c>
       <c r="M20">
-        <v>2.766780410329915</v>
+        <v>7.571901026127478</v>
       </c>
       <c r="N20">
-        <v>1.897898215375875</v>
+        <v>4.173168042873527</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2575897806953265</v>
+        <v>0.1429626559921502</v>
       </c>
       <c r="D21">
-        <v>0.1085390241764941</v>
+        <v>0.1746468750729235</v>
       </c>
       <c r="E21">
-        <v>0.07933980141602248</v>
+        <v>0.01038676863248478</v>
       </c>
       <c r="F21">
-        <v>2.920356272162849</v>
+        <v>6.865212572439674</v>
       </c>
       <c r="G21">
-        <v>3.112154785070857</v>
+        <v>7.971617336747101</v>
       </c>
       <c r="H21">
-        <v>2.092918145443775</v>
+        <v>3.841851198239453</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.08086425190214896</v>
+        <v>0.08833131685864259</v>
       </c>
       <c r="M21">
-        <v>3.027116335612163</v>
+        <v>8.658088821736982</v>
       </c>
       <c r="N21">
-        <v>2.042006382610339</v>
+        <v>4.63133441793542</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2564274921204657</v>
+        <v>0.1535465376697687</v>
       </c>
       <c r="D22">
-        <v>0.1099886328152309</v>
+        <v>0.193851530207823</v>
       </c>
       <c r="E22">
-        <v>0.07836078892418463</v>
+        <v>0.008911075272286961</v>
       </c>
       <c r="F22">
-        <v>3.01718525756101</v>
+        <v>7.555490391032009</v>
       </c>
       <c r="G22">
-        <v>3.22741254109053</v>
+        <v>8.785473297718625</v>
       </c>
       <c r="H22">
-        <v>2.140281582570822</v>
+        <v>4.219284565141663</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.08208108705827044</v>
+        <v>0.09230421013158008</v>
       </c>
       <c r="M22">
-        <v>3.197704354941635</v>
+        <v>9.396974387853817</v>
       </c>
       <c r="N22">
-        <v>2.136445066950387</v>
+        <v>4.934674993203828</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2570326162253593</v>
+        <v>0.14773717226592</v>
       </c>
       <c r="D23">
-        <v>0.1092059062675474</v>
+        <v>0.1833811012566287</v>
       </c>
       <c r="E23">
-        <v>0.07887982488053424</v>
+        <v>0.009689380993925578</v>
       </c>
       <c r="F23">
-        <v>2.965302283074237</v>
+        <v>7.181434466126149</v>
       </c>
       <c r="G23">
-        <v>3.16567247508118</v>
+        <v>8.344380868165103</v>
       </c>
       <c r="H23">
-        <v>2.114863336579447</v>
+        <v>4.014614028417043</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.08143101221343585</v>
+        <v>0.09018470901646225</v>
       </c>
       <c r="M23">
-        <v>3.106617104178724</v>
+        <v>8.999494609029824</v>
       </c>
       <c r="N23">
-        <v>2.086018764779794</v>
+        <v>4.772376483157416</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.259656881374994</v>
+        <v>0.1289002485107176</v>
       </c>
       <c r="D24">
-        <v>0.1064378477739183</v>
+        <v>0.1480094942589432</v>
       </c>
       <c r="E24">
-        <v>0.08092200469848798</v>
+        <v>0.01283033629864549</v>
       </c>
       <c r="F24">
-        <v>2.773217013987107</v>
+        <v>5.874685669125256</v>
       </c>
       <c r="G24">
-        <v>2.93671097387022</v>
+        <v>6.804716412771484</v>
       </c>
       <c r="H24">
-        <v>2.021628067420522</v>
+        <v>3.302388052479387</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.07898310801856923</v>
+        <v>0.08213974725387629</v>
       </c>
       <c r="M24">
-        <v>2.762532702677674</v>
+        <v>7.554545273637757</v>
       </c>
       <c r="N24">
-        <v>1.895547337661725</v>
+        <v>4.165736682576409</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2631870981078492</v>
+        <v>0.1134904197490982</v>
       </c>
       <c r="D25">
-        <v>0.1038574353849953</v>
+        <v>0.1161760040355091</v>
       </c>
       <c r="E25">
-        <v>0.08328764407238998</v>
+        <v>0.0165722492907423</v>
       </c>
       <c r="F25">
-        <v>2.575089023843844</v>
+        <v>4.62872168106307</v>
       </c>
       <c r="G25">
-        <v>2.699703667517099</v>
+        <v>5.338318640437478</v>
       </c>
       <c r="H25">
-        <v>1.927336742911564</v>
+        <v>2.628077110112145</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.076375272817927</v>
+        <v>0.07343806089257043</v>
       </c>
       <c r="M25">
-        <v>2.393224463199772</v>
+        <v>6.083672055880356</v>
       </c>
       <c r="N25">
-        <v>1.691272285562036</v>
+        <v>3.524511933625377</v>
       </c>
       <c r="O25">
         <v>0</v>
